--- a/tables/random_sd_PhenTemp.xlsx
+++ b/tables/random_sd_PhenTemp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Relation</t>
   </si>
@@ -26,70 +26,67 @@
     <t xml:space="preserve">Location.SD</t>
   </si>
   <si>
+    <t xml:space="preserve">GR&lt;-Pop_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.157113e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.885537e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.007523e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR&lt;-Trait_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.198085e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.138270e-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.959277e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trait_mean&lt;-det_Clim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.422669e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.539178e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.626660e-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">GR&lt;-det_Clim</t>
   </si>
   <si>
-    <t xml:space="preserve">1.054575e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.217722e-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.426608e-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR&lt;-Pop_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.157113e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.885537e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.972215e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR&lt;-Trait_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.198085e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.715941e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.959277e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trait_mean&lt;-det_Clim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.422669e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.539178e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.626660e-01</t>
+    <t xml:space="preserve">1.208790e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.823894e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.931733e-03</t>
   </si>
   <si>
     <t xml:space="preserve">Ind_GR&lt;-det_Clim</t>
   </si>
   <si>
-    <t xml:space="preserve">7.470254e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.885025e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.636049e-14</t>
+    <t xml:space="preserve">6.902558e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.801431e-15</t>
   </si>
   <si>
     <t xml:space="preserve">Tot_GR&lt;-det_Clim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000e+00</t>
   </si>
 </sst>
 </file>
@@ -582,13 +579,13 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
